--- a/pred_ohlcv/54_21/2019-10-30 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 CMT ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>682138.4056999998</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>506712.8672666661</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>401133.7817666662</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>441013.0405666662</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>355942.6025666662</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>355942.6025666662</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>352074.3355666662</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>623388.2778666662</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>612537.3717666662</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9249485.37764092</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>9426406.72115181</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>9557980.716251811</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>9703316.192351811</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9951478.098726893</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10271287.73992689</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9474553.384626893</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>9519646.608126894</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>9859393.822693022</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10200916.93435295</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>10046331.27244492</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10315096.65733688</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11383726.01363719</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>11117984.80929215</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11354659.00812682</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>10303012.46902682</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10026253.40902682</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10084206.49212682</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10506845.60452682</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11485019.50704488</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>12225525.94641106</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>11307016.01626699</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10751540.32016699</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11224715.57766699</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>11491716.89496699</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>10704198.79246699</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>10376840.48186699</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>10905732.79964868</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>10414644.13664868</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>10601706.27954868</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>10866726.29287951</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>10837360.76847951</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>10431984.87567951</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>10550041.40947951</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>10347069.00977951</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>10211216.83127951</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>9789629.885690453</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>9993705.600590453</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>9813342.368990453</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>9813792.038190452</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>9645051.111490453</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>9456526.920790453</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>9250055.621390453</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>9301632.511290453</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>9495118.238090454</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>9430877.315090453</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>9493950.790012272</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 CMT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 CMT ohlcv.xlsx
@@ -2862,7 +2862,7 @@
         <v>682138.4056999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1034100.7296</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9249485.37764092</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>9426406.72115181</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>9557980.716251811</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>9703316.192351811</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9951478.098726893</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10271287.73992689</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9474553.384626893</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>9519646.608126894</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>9859393.822693022</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>10200916.93435295</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>10046331.27244492</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>10315096.65733688</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>11383726.01363719</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>10626732.31383719</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>11117984.80929215</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>11354659.00812682</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>10303012.46902682</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>10026253.40902682</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>10084206.49212682</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>10506845.60452682</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>12129366.50681156</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>11485019.50704488</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>12225525.94641106</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>11307016.01626699</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>10751540.32016699</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>11224715.57766699</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>11766049.80896699</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>11491716.89496699</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>10704198.79246699</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>10376840.48186699</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>10905732.79964868</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>10414644.13664868</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>10601706.27954868</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>10866726.29287951</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>10837360.76847951</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>10915887.04127951</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>10760769.56937951</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>10431984.87567951</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>10550041.40947951</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>10347069.00977951</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>10211216.83127951</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>9789629.885690453</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>9993705.600590453</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>9813342.368990453</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>9813792.038190452</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>9645051.111490453</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>9456526.920790453</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>9250055.621390453</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
